--- a/contratos/contratos-6-2016.xlsx
+++ b/contratos/contratos-6-2016.xlsx
@@ -778,7 +778,7 @@
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -913,7 +913,7 @@
     <t>ROSARIO MAQUINAS VIALES S.R.L.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOSONE DANIEL ENRIQUE</t>
@@ -1390,553 +1390,553 @@
     <t>181</t>
   </si>
   <si>
-    <t>840,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>261.993,00</t>
-  </si>
-  <si>
-    <t>300.000,00</t>
-  </si>
-  <si>
-    <t>1.945,36</t>
-  </si>
-  <si>
-    <t>559,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>11.889,00</t>
-  </si>
-  <si>
-    <t>6.050,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>5.150,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>333.545,80</t>
-  </si>
-  <si>
-    <t>144.529,04</t>
-  </si>
-  <si>
-    <t>53.736,50</t>
-  </si>
-  <si>
-    <t>49.293,76</t>
-  </si>
-  <si>
-    <t>3.901,95</t>
-  </si>
-  <si>
-    <t>34.262,00</t>
-  </si>
-  <si>
-    <t>11.624,60</t>
-  </si>
-  <si>
-    <t>21.951,47</t>
-  </si>
-  <si>
-    <t>21.181,21</t>
-  </si>
-  <si>
-    <t>2.520,00</t>
-  </si>
-  <si>
-    <t>357,05</t>
-  </si>
-  <si>
-    <t>431,40</t>
-  </si>
-  <si>
-    <t>1.205,00</t>
-  </si>
-  <si>
-    <t>3.576,99</t>
-  </si>
-  <si>
-    <t>115.990,06</t>
-  </si>
-  <si>
-    <t>940,00</t>
-  </si>
-  <si>
-    <t>18.356,06</t>
-  </si>
-  <si>
-    <t>1.194,80</t>
-  </si>
-  <si>
-    <t>5.471,50</t>
-  </si>
-  <si>
-    <t>163,36</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>29,13</t>
-  </si>
-  <si>
-    <t>77,40</t>
-  </si>
-  <si>
-    <t>558,00</t>
-  </si>
-  <si>
-    <t>13.316,60</t>
-  </si>
-  <si>
-    <t>46.161,18</t>
-  </si>
-  <si>
-    <t>1.735,60</t>
-  </si>
-  <si>
-    <t>7.943,15</t>
-  </si>
-  <si>
-    <t>6.746,00</t>
-  </si>
-  <si>
-    <t>3.450,00</t>
-  </si>
-  <si>
-    <t>9.302,97</t>
-  </si>
-  <si>
-    <t>10.883,53</t>
-  </si>
-  <si>
-    <t>298.316,00</t>
-  </si>
-  <si>
-    <t>2.668,00</t>
-  </si>
-  <si>
-    <t>558,69</t>
-  </si>
-  <si>
-    <t>3.857,65</t>
-  </si>
-  <si>
-    <t>37,20</t>
-  </si>
-  <si>
-    <t>207.464,11</t>
-  </si>
-  <si>
-    <t>148,80</t>
-  </si>
-  <si>
-    <t>96.727,66</t>
-  </si>
-  <si>
-    <t>84.700,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>1.704,30</t>
-  </si>
-  <si>
-    <t>34.185,70</t>
-  </si>
-  <si>
-    <t>2.916,00</t>
-  </si>
-  <si>
-    <t>768,00</t>
-  </si>
-  <si>
-    <t>1.505,44</t>
-  </si>
-  <si>
-    <t>9.550,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>14.025,00</t>
-  </si>
-  <si>
-    <t>38.700,00</t>
-  </si>
-  <si>
-    <t>1.986,95</t>
-  </si>
-  <si>
-    <t>10.504,97</t>
-  </si>
-  <si>
-    <t>510,00</t>
-  </si>
-  <si>
-    <t>1.220,00</t>
-  </si>
-  <si>
-    <t>102.000,00</t>
-  </si>
-  <si>
-    <t>56.500,00</t>
-  </si>
-  <si>
-    <t>500,02</t>
-  </si>
-  <si>
-    <t>310,00</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>9.800,00</t>
-  </si>
-  <si>
-    <t>8.600,00</t>
-  </si>
-  <si>
-    <t>104,32</t>
-  </si>
-  <si>
-    <t>13.356,00</t>
-  </si>
-  <si>
-    <t>2.540,00</t>
-  </si>
-  <si>
-    <t>5.940,00</t>
-  </si>
-  <si>
-    <t>2.680,00</t>
-  </si>
-  <si>
-    <t>2.380,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>9.423,00</t>
-  </si>
-  <si>
-    <t>233.898,00</t>
-  </si>
-  <si>
-    <t>365,00</t>
-  </si>
-  <si>
-    <t>415.230,93</t>
-  </si>
-  <si>
-    <t>3.157,00</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>29,40</t>
-  </si>
-  <si>
-    <t>48,68</t>
-  </si>
-  <si>
-    <t>31.467,15</t>
-  </si>
-  <si>
-    <t>8.270,00</t>
-  </si>
-  <si>
-    <t>146,00</t>
-  </si>
-  <si>
-    <t>13.047,00</t>
-  </si>
-  <si>
-    <t>22.230,00</t>
-  </si>
-  <si>
-    <t>14.700,75</t>
-  </si>
-  <si>
-    <t>74,70</t>
-  </si>
-  <si>
-    <t>3.597,00</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>2.582,00</t>
-  </si>
-  <si>
-    <t>20.663,11</t>
-  </si>
-  <si>
-    <t>5.175,00</t>
-  </si>
-  <si>
-    <t>987,20</t>
-  </si>
-  <si>
-    <t>1.294,36</t>
-  </si>
-  <si>
-    <t>1.165,00</t>
-  </si>
-  <si>
-    <t>555,70</t>
-  </si>
-  <si>
-    <t>4.550,00</t>
-  </si>
-  <si>
-    <t>1.328,60</t>
-  </si>
-  <si>
-    <t>1.516,00</t>
-  </si>
-  <si>
-    <t>207.717,50</t>
-  </si>
-  <si>
-    <t>84.400,00</t>
-  </si>
-  <si>
-    <t>1.778,00</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>3.079,03</t>
-  </si>
-  <si>
-    <t>5.850,00</t>
-  </si>
-  <si>
-    <t>3.400,00</t>
-  </si>
-  <si>
-    <t>41.288,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>354,32</t>
-  </si>
-  <si>
-    <t>2.110,00</t>
-  </si>
-  <si>
-    <t>6.478,62</t>
-  </si>
-  <si>
-    <t>1.637,40</t>
-  </si>
-  <si>
-    <t>625,00</t>
-  </si>
-  <si>
-    <t>450,52</t>
-  </si>
-  <si>
-    <t>301.500,00</t>
-  </si>
-  <si>
-    <t>2.068,56</t>
-  </si>
-  <si>
-    <t>5.125,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>2.880,00</t>
-  </si>
-  <si>
-    <t>2.178,00</t>
-  </si>
-  <si>
-    <t>6.200,00</t>
-  </si>
-  <si>
-    <t>4.830,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>109,64</t>
-  </si>
-  <si>
-    <t>67,10</t>
-  </si>
-  <si>
-    <t>26.000,00</t>
-  </si>
-  <si>
-    <t>8.190,00</t>
-  </si>
-  <si>
-    <t>545,69</t>
-  </si>
-  <si>
-    <t>266,00</t>
-  </si>
-  <si>
-    <t>733,20</t>
-  </si>
-  <si>
-    <t>2.020,00</t>
-  </si>
-  <si>
-    <t>2.623,08</t>
-  </si>
-  <si>
-    <t>22.400,00</t>
-  </si>
-  <si>
-    <t>212,80</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>1.521,00</t>
-  </si>
-  <si>
-    <t>5.220,17</t>
-  </si>
-  <si>
-    <t>22.600,00</t>
-  </si>
-  <si>
-    <t>8.200,00</t>
-  </si>
-  <si>
-    <t>3.372,00</t>
-  </si>
-  <si>
-    <t>632,00</t>
-  </si>
-  <si>
-    <t>319,80</t>
-  </si>
-  <si>
-    <t>33.540,00</t>
-  </si>
-  <si>
-    <t>6.492,00</t>
-  </si>
-  <si>
-    <t>4.650,00</t>
-  </si>
-  <si>
-    <t>461,58</t>
-  </si>
-  <si>
-    <t>5.326,27</t>
-  </si>
-  <si>
-    <t>14.369,95</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>169.400,00</t>
-  </si>
-  <si>
-    <t>4.219.992,55</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>141.583,00</t>
-  </si>
-  <si>
-    <t>105.000,00</t>
-  </si>
-  <si>
-    <t>155.000,00</t>
-  </si>
-  <si>
-    <t>175.000,00</t>
-  </si>
-  <si>
-    <t>200.000,00</t>
-  </si>
-  <si>
-    <t>245.000,00</t>
-  </si>
-  <si>
-    <t>130.000,00</t>
-  </si>
-  <si>
-    <t>297.000,00</t>
-  </si>
-  <si>
-    <t>210.103,61</t>
-  </si>
-  <si>
-    <t>8.223,00</t>
-  </si>
-  <si>
-    <t>11.796,00</t>
-  </si>
-  <si>
-    <t>14.700,00</t>
-  </si>
-  <si>
-    <t>13.506,14</t>
-  </si>
-  <si>
-    <t>12.864,22</t>
-  </si>
-  <si>
-    <t>54.448,80</t>
-  </si>
-  <si>
-    <t>19.337,50</t>
-  </si>
-  <si>
-    <t>17.500,00</t>
-  </si>
-  <si>
-    <t>725,00</t>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>261993.00</t>
+  </si>
+  <si>
+    <t>300000.00</t>
+  </si>
+  <si>
+    <t>1945.36</t>
+  </si>
+  <si>
+    <t>559.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>11889.00</t>
+  </si>
+  <si>
+    <t>6050.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>5150.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>333545.80</t>
+  </si>
+  <si>
+    <t>144529.04</t>
+  </si>
+  <si>
+    <t>53736.50</t>
+  </si>
+  <si>
+    <t>49293.76</t>
+  </si>
+  <si>
+    <t>3901.95</t>
+  </si>
+  <si>
+    <t>34262.00</t>
+  </si>
+  <si>
+    <t>11624.60</t>
+  </si>
+  <si>
+    <t>21951.47</t>
+  </si>
+  <si>
+    <t>21181.21</t>
+  </si>
+  <si>
+    <t>2520.00</t>
+  </si>
+  <si>
+    <t>357.05</t>
+  </si>
+  <si>
+    <t>431.40</t>
+  </si>
+  <si>
+    <t>1205.00</t>
+  </si>
+  <si>
+    <t>3576.99</t>
+  </si>
+  <si>
+    <t>115990.06</t>
+  </si>
+  <si>
+    <t>940.00</t>
+  </si>
+  <si>
+    <t>18356.06</t>
+  </si>
+  <si>
+    <t>1194.80</t>
+  </si>
+  <si>
+    <t>5471.50</t>
+  </si>
+  <si>
+    <t>163.36</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>29.13</t>
+  </si>
+  <si>
+    <t>77.40</t>
+  </si>
+  <si>
+    <t>558.00</t>
+  </si>
+  <si>
+    <t>13316.60</t>
+  </si>
+  <si>
+    <t>46161.18</t>
+  </si>
+  <si>
+    <t>1735.60</t>
+  </si>
+  <si>
+    <t>7943.15</t>
+  </si>
+  <si>
+    <t>6746.00</t>
+  </si>
+  <si>
+    <t>3450.00</t>
+  </si>
+  <si>
+    <t>9302.97</t>
+  </si>
+  <si>
+    <t>10883.53</t>
+  </si>
+  <si>
+    <t>298316.00</t>
+  </si>
+  <si>
+    <t>2668.00</t>
+  </si>
+  <si>
+    <t>558.69</t>
+  </si>
+  <si>
+    <t>3857.65</t>
+  </si>
+  <si>
+    <t>37.20</t>
+  </si>
+  <si>
+    <t>207464.11</t>
+  </si>
+  <si>
+    <t>148.80</t>
+  </si>
+  <si>
+    <t>96727.66</t>
+  </si>
+  <si>
+    <t>84700.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>1704.30</t>
+  </si>
+  <si>
+    <t>34185.70</t>
+  </si>
+  <si>
+    <t>2916.00</t>
+  </si>
+  <si>
+    <t>768.00</t>
+  </si>
+  <si>
+    <t>1505.44</t>
+  </si>
+  <si>
+    <t>9550.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>14025.00</t>
+  </si>
+  <si>
+    <t>38700.00</t>
+  </si>
+  <si>
+    <t>1986.95</t>
+  </si>
+  <si>
+    <t>10504.97</t>
+  </si>
+  <si>
+    <t>510.00</t>
+  </si>
+  <si>
+    <t>1220.00</t>
+  </si>
+  <si>
+    <t>102000.00</t>
+  </si>
+  <si>
+    <t>56500.00</t>
+  </si>
+  <si>
+    <t>500.02</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>9800.00</t>
+  </si>
+  <si>
+    <t>8600.00</t>
+  </si>
+  <si>
+    <t>104.32</t>
+  </si>
+  <si>
+    <t>13356.00</t>
+  </si>
+  <si>
+    <t>2540.00</t>
+  </si>
+  <si>
+    <t>5940.00</t>
+  </si>
+  <si>
+    <t>2680.00</t>
+  </si>
+  <si>
+    <t>2380.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>9423.00</t>
+  </si>
+  <si>
+    <t>233898.00</t>
+  </si>
+  <si>
+    <t>365.00</t>
+  </si>
+  <si>
+    <t>415230.93</t>
+  </si>
+  <si>
+    <t>3157.00</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>29.40</t>
+  </si>
+  <si>
+    <t>48.68</t>
+  </si>
+  <si>
+    <t>31467.15</t>
+  </si>
+  <si>
+    <t>8270.00</t>
+  </si>
+  <si>
+    <t>146.00</t>
+  </si>
+  <si>
+    <t>13047.00</t>
+  </si>
+  <si>
+    <t>22230.00</t>
+  </si>
+  <si>
+    <t>14700.75</t>
+  </si>
+  <si>
+    <t>74.70</t>
+  </si>
+  <si>
+    <t>3597.00</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>2582.00</t>
+  </si>
+  <si>
+    <t>20663.11</t>
+  </si>
+  <si>
+    <t>5175.00</t>
+  </si>
+  <si>
+    <t>987.20</t>
+  </si>
+  <si>
+    <t>1294.36</t>
+  </si>
+  <si>
+    <t>1165.00</t>
+  </si>
+  <si>
+    <t>555.70</t>
+  </si>
+  <si>
+    <t>4550.00</t>
+  </si>
+  <si>
+    <t>1328.60</t>
+  </si>
+  <si>
+    <t>1516.00</t>
+  </si>
+  <si>
+    <t>207717.50</t>
+  </si>
+  <si>
+    <t>84400.00</t>
+  </si>
+  <si>
+    <t>1778.00</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>3079.03</t>
+  </si>
+  <si>
+    <t>5850.00</t>
+  </si>
+  <si>
+    <t>3400.00</t>
+  </si>
+  <si>
+    <t>41288.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>354.32</t>
+  </si>
+  <si>
+    <t>2110.00</t>
+  </si>
+  <si>
+    <t>6478.62</t>
+  </si>
+  <si>
+    <t>1637.40</t>
+  </si>
+  <si>
+    <t>625.00</t>
+  </si>
+  <si>
+    <t>450.52</t>
+  </si>
+  <si>
+    <t>301500.00</t>
+  </si>
+  <si>
+    <t>2068.56</t>
+  </si>
+  <si>
+    <t>5125.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>2880.00</t>
+  </si>
+  <si>
+    <t>2178.00</t>
+  </si>
+  <si>
+    <t>6200.00</t>
+  </si>
+  <si>
+    <t>4830.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>109.64</t>
+  </si>
+  <si>
+    <t>67.10</t>
+  </si>
+  <si>
+    <t>26000.00</t>
+  </si>
+  <si>
+    <t>8190.00</t>
+  </si>
+  <si>
+    <t>545.69</t>
+  </si>
+  <si>
+    <t>266.00</t>
+  </si>
+  <si>
+    <t>733.20</t>
+  </si>
+  <si>
+    <t>2020.00</t>
+  </si>
+  <si>
+    <t>2623.08</t>
+  </si>
+  <si>
+    <t>22400.00</t>
+  </si>
+  <si>
+    <t>212.80</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>1521.00</t>
+  </si>
+  <si>
+    <t>5220.17</t>
+  </si>
+  <si>
+    <t>22600.00</t>
+  </si>
+  <si>
+    <t>8200.00</t>
+  </si>
+  <si>
+    <t>3372.00</t>
+  </si>
+  <si>
+    <t>632.00</t>
+  </si>
+  <si>
+    <t>319.80</t>
+  </si>
+  <si>
+    <t>33540.00</t>
+  </si>
+  <si>
+    <t>6492.00</t>
+  </si>
+  <si>
+    <t>4650.00</t>
+  </si>
+  <si>
+    <t>461.58</t>
+  </si>
+  <si>
+    <t>5326.27</t>
+  </si>
+  <si>
+    <t>14369.95</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>169400.00</t>
+  </si>
+  <si>
+    <t>4219992.55</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>141583.00</t>
+  </si>
+  <si>
+    <t>105000.00</t>
+  </si>
+  <si>
+    <t>155000.00</t>
+  </si>
+  <si>
+    <t>175000.00</t>
+  </si>
+  <si>
+    <t>200000.00</t>
+  </si>
+  <si>
+    <t>245000.00</t>
+  </si>
+  <si>
+    <t>130000.00</t>
+  </si>
+  <si>
+    <t>297000.00</t>
+  </si>
+  <si>
+    <t>210103.61</t>
+  </si>
+  <si>
+    <t>8223.00</t>
+  </si>
+  <si>
+    <t>11796.00</t>
+  </si>
+  <si>
+    <t>14700.00</t>
+  </si>
+  <si>
+    <t>13506.14</t>
+  </si>
+  <si>
+    <t>12864.22</t>
+  </si>
+  <si>
+    <t>54448.80</t>
+  </si>
+  <si>
+    <t>19337.50</t>
+  </si>
+  <si>
+    <t>17500.00</t>
+  </si>
+  <si>
+    <t>725.00</t>
   </si>
 </sst>
 </file>
